--- a/סיווג מאמרים.xlsx
+++ b/סיווג מאמרים.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodtd\Documents\פרויקט גמר\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E10ADA-6340-478C-8ED8-9FCBA9467421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946CA84-53B1-4A85-827C-DB127A3CA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B791B083-CDF8-486F-83DE-155723B5157F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Article</t>
   </si>
@@ -43,6 +43,104 @@
   </si>
   <si>
     <t>Classification</t>
+  </si>
+  <si>
+    <t>3D-Pursuit-Evasion-for-AUVs</t>
+  </si>
+  <si>
+    <t>A cooperative pursuit-evasion game of a high speed evader</t>
+  </si>
+  <si>
+    <t>A GAME OF COPS AND ROBBERS</t>
+  </si>
+  <si>
+    <t>Cooperative Multi-Quadrotor Pursuit of an Evader in an Environment</t>
+  </si>
+  <si>
+    <t>Cooperative pursuit with Voronoi partitions</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for Swarm Systems</t>
+  </si>
+  <si>
+    <t>Multi-Agent Cooperative Pursuit-Evasion</t>
+  </si>
+  <si>
+    <t>MULTIPLE-AGENT PROBABILISTIC PURSUIT-EVASION GAMES</t>
+  </si>
+  <si>
+    <t>Optimal Pursuit of Moving Targets using Dynamic Voronoi Diagrams</t>
+  </si>
+  <si>
+    <t>Pursuit, Evasion and Defense in the Plane</t>
+  </si>
+  <si>
+    <t>Pursuit-Evasion on Trees by Robot Teams</t>
+  </si>
+  <si>
+    <t>Pursuit-evasion with fixed beams</t>
+  </si>
+  <si>
+    <t>Randomized pursuit-evasion in a polygonal environment</t>
+  </si>
+  <si>
+    <t>Safe-Reachable Area Cooperative Pursuit</t>
+  </si>
+  <si>
+    <t>Search and pursuit-evasion in mobile robotics</t>
+  </si>
+  <si>
+    <t>Swarm Coordination for Pursuit Evasion Games using sensor networks</t>
+  </si>
+  <si>
+    <t>The Role of Visibility in the Cops-Robber Game and Robotic Pursuit  Evasion</t>
+  </si>
+  <si>
+    <t>UAV pursuit using reinforcement learning</t>
+  </si>
+  <si>
+    <t>UAV Pursuit-Evasion using Deep Learning and Search Area Proposal</t>
+  </si>
+  <si>
+    <t>VERTEX-TO-VERTEX PURSUIT IN A GRAPH</t>
+  </si>
+  <si>
+    <t>Visibility-based pursuit-evasion with limited field of view</t>
+  </si>
+  <si>
+    <t>GUARANTEED STRATEGIES FOR NONLINEAR 
+MULTI-PLAYER PURSUIT-EVASION GAMES</t>
+  </si>
+  <si>
+    <t>Multi–robot control system for pursuit–evasion problem</t>
+  </si>
+  <si>
+    <t>Probabilistic Strategies for Pursuit in Cluttered 
+Environments with Multiple Robots</t>
+  </si>
+  <si>
+    <t>Probabilistic pursuit-evasion games Theory
+implementation and experimental evaluation</t>
+  </si>
+  <si>
+    <t>Mosquito-inspired distributed swarming and
+pursuit for cooperative defense against fast intruders</t>
+  </si>
+  <si>
+    <t>Intercepting Unmanned Aerial Vehicle Swarms
+with Neural- Network-Aided Game-Theoretic Target Assignment</t>
+  </si>
+  <si>
+    <t>Intercepting Rogue Robots_ An Algorithm for Capturing
+Multiple Evaders With Multiple Pursuers</t>
+  </si>
+  <si>
+    <t>Drones Chasing Drones Reinforcement Learning
+and Deep Search Area Proposal</t>
+  </si>
+  <si>
+    <t>Solutions for Multiagent Pursuit Evasion Games
+on Communication Graphs  Finite Time Capture and Asymptotic Behaviors</t>
   </si>
 </sst>
 </file>
@@ -89,16 +187,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -110,23 +208,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -135,11 +233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,48 +555,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7003F45E-5C8C-46A0-A044-9E9B0DDE8A80}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="64.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/סיווג מאמרים.xlsx
+++ b/סיווג מאמרים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodtd\Documents\פרויקט גמר\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946CA84-53B1-4A85-827C-DB127A3CA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844AC5A-FEB8-4D77-A81A-9110019E24D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B791B083-CDF8-486F-83DE-155723B5157F}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +174,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,14 +245,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +576,8 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,221 +588,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="1"/>

--- a/סיווג מאמרים.xlsx
+++ b/סיווג מאמרים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodtd\Documents\פרויקט גמר\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39844DE4-8D0B-4323-AD10-EBAC1FD8B1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DD9C9-9FFC-4023-B5EC-21D3AC1250ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Article</t>
   </si>
@@ -250,6 +250,48 @@
   </si>
   <si>
     <t>Theoretical</t>
+  </si>
+  <si>
+    <t>“area-minimization” strategy based on a Voronoi tessellation
+of the environment</t>
+  </si>
+  <si>
+    <t>Both?</t>
+  </si>
+  <si>
+    <t>ntercepting rogue UAV swarms by
+exploiting the underlying game-theoretic nature of large-scale
+pursuit-evasion games to develop locally optimal profiles for target
+assignment.</t>
+  </si>
+  <si>
+    <t>swarming strategy for multiple
+guardians to defend a protected zone from an intruder.</t>
+  </si>
+  <si>
+    <t>Theoretical?</t>
+  </si>
+  <si>
+    <t>maintain an estimate of the evader's position, pursuers move to maximally reduce the area of space reachable by the evader given the uncertainty in the evader's position estimate.</t>
+  </si>
+  <si>
+    <t>“greedy” policyto control a swarm of autonomous agents in the pursuit
+of one or several evaders. At each instant of time
+this policy directs the pursuers to the locations that
+maximize the probability of finding an evader</t>
+  </si>
+  <si>
+    <t>MULTI–ROBOT CONTROL SYSTEM FOR PURSUIT–EVASION PROBLEM</t>
+  </si>
+  <si>
+    <t>control system based on a
+fuzzy inference system</t>
+  </si>
+  <si>
+    <t>Voronoi-like partitions, a pursuer residing inside a given set of the partition. In case a target enter the given set the pursuer can interceptthe target  faster than any other pursuer outside this set</t>
+  </si>
+  <si>
+    <t>doesn't seems to be relevant at all</t>
   </si>
 </sst>
 </file>
@@ -354,20 +396,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -383,6 +415,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,353 +822,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.36328125" customWidth="1"/>
+    <col min="1" max="1" width="64.36328125" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="11" customWidth="1"/>
     <col min="4" max="4" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/סיווג מאמרים.xlsx
+++ b/סיווג מאמרים.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nodtd\Documents\פרויקט גמר\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DD9C9-9FFC-4023-B5EC-21D3AC1250ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5240B-ADF2-4AFF-ACB1-40AB6A3F62A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$D$34</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>Article</t>
   </si>
@@ -96,9 +99,6 @@
     <t>Voronoi neighbors analysis</t>
   </si>
   <si>
-    <t>practical</t>
-  </si>
-  <si>
     <t>multiple persuirs one evader</t>
   </si>
   <si>
@@ -108,9 +108,6 @@
     <t>transformation into tree and processing</t>
   </si>
   <si>
-    <t>theoretical?</t>
-  </si>
-  <si>
     <t>Sweep-detection on tree model – less relevant</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>search theory</t>
-  </si>
-  <si>
-    <t>theoretical</t>
   </si>
   <si>
     <t>Solutions for Multiagent Pursuit Evasion Games
@@ -179,9 +173,6 @@
   </si>
   <si>
     <t>UAV Pursuit-Evasion using Deep Learning and Search Area Proposal</t>
-  </si>
-  <si>
-    <t>Almost the same as the  previous one</t>
   </si>
   <si>
     <t>VERTEX-TO-VERTEX PURSUIT IN A GRAPH</t>
@@ -259,17 +250,8 @@
     <t>Both?</t>
   </si>
   <si>
-    <t>ntercepting rogue UAV swarms by
-exploiting the underlying game-theoretic nature of large-scale
-pursuit-evasion games to develop locally optimal profiles for target
-assignment.</t>
-  </si>
-  <si>
     <t>swarming strategy for multiple
 guardians to defend a protected zone from an intruder.</t>
-  </si>
-  <si>
-    <t>Theoretical?</t>
   </si>
   <si>
     <t>maintain an estimate of the evader's position, pursuers move to maximally reduce the area of space reachable by the evader given the uncertainty in the evader's position estimate.</t>
@@ -292,13 +274,54 @@
   </si>
   <si>
     <t>doesn't seems to be relevant at all</t>
+  </si>
+  <si>
+    <t>devide the swarm to 3 groups, pursuers,guards
+and inactive. the division is based on the chance of each member to reach the evader in time T</t>
+  </si>
+  <si>
+    <t>Multiple-Pursuer/One-Evader Pursuit– Evasion Game in Dynamic Flowfields</t>
+  </si>
+  <si>
+    <t>can work for us, basically calculate trajectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apollonius circle and q-learning</t>
+  </si>
+  <si>
+    <t>Research on Pursuit-evasion games with multiple
+heterogeneous pursuers and a high speed evader</t>
+  </si>
+  <si>
+    <t>area reduction</t>
+  </si>
+  <si>
+    <t>trajectory calculation</t>
+  </si>
+  <si>
+    <t>position prediction</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>intercepting rogue UAV swarms by
+exploiting the underlying game-theoretic nature of large-scale
+pursuit-evasion games to develop locally optimal profiles for target
+assignment.</t>
+  </si>
+  <si>
+    <t>fuzzy controller</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,14 +331,27 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,20 +364,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -350,16 +374,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -371,7 +393,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -387,64 +411,158 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -513,6 +631,14 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FF87D971"/>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -822,396 +948,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.36328125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39.90625" customWidth="1"/>
+    <col min="3" max="4" width="23.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="44" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" t="s">
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B33" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="C33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:D34" xr:uid="{ED6B7457-79B6-405A-8C24-63E08830BFBB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
+  <conditionalFormatting sqref="A34:E34 A33:C33 E33 A20:E32 A19:C19 E19 A2:E18">
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>$D2="area reduction"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="17">
+      <formula>$D2="position prediction"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D2="trajectory calculation"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:E34 A33:C33 E33 A20:E32 A19:C19 E19 A1:E18">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>$D2="fuzzy controller"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>